--- a/docs/channel-maps/SpikeGadgets_A2x32Poly5_Mapping_210327_RigC_dayswhenflipped.xlsx
+++ b/docs/channel-maps/SpikeGadgets_A2x32Poly5_Mapping_210327_RigC_dayswhenflipped.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/labs/singer/Rig/Probes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\singer\Steph\Code\update-project\docs\channel-maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA124E4-0727-5044-B9F1-6A2A4345AC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="1000" windowWidth="21580" windowHeight="14860" xr2:uid="{97EC10F6-EF12-4000-86AD-16525649A581}"/>
+    <workbookView xWindow="1605" yWindow="1005" windowWidth="21585" windowHeight="14865"/>
   </bookViews>
   <sheets>
     <sheet name="FinalMap" sheetId="6" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="UH32toOM32x2" sheetId="2" r:id="rId4"/>
     <sheet name="MappingDetails" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -118,7 +117,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -474,16 +473,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F49AAEF-B709-FE45-A2E6-1B8979F77537}">
-  <dimension ref="A1:B129"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -491,7 +490,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>8</v>
       </c>
@@ -499,7 +498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>19</v>
       </c>
@@ -507,7 +506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>14</v>
       </c>
@@ -515,7 +514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -523,7 +522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>21</v>
       </c>
@@ -531,7 +530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -539,7 +538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -547,7 +546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>12</v>
       </c>
@@ -555,7 +554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -563,7 +562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>22</v>
       </c>
@@ -571,7 +570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>13</v>
       </c>
@@ -579,7 +578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>20</v>
       </c>
@@ -587,7 +586,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -595,7 +594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>17</v>
       </c>
@@ -603,7 +602,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>23</v>
       </c>
@@ -611,7 +610,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>7</v>
       </c>
@@ -619,7 +618,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -627,7 +626,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>28</v>
       </c>
@@ -635,7 +634,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>6</v>
       </c>
@@ -643,7 +642,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>26</v>
       </c>
@@ -651,7 +650,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>15</v>
       </c>
@@ -659,7 +658,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>25</v>
       </c>
@@ -667,7 +666,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>30</v>
       </c>
@@ -675,7 +674,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -683,7 +682,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>27</v>
       </c>
@@ -691,7 +690,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>9</v>
       </c>
@@ -699,7 +698,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>18</v>
       </c>
@@ -707,7 +706,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>24</v>
       </c>
@@ -715,7 +714,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>3</v>
       </c>
@@ -723,7 +722,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -731,7 +730,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>11</v>
       </c>
@@ -739,7 +738,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -747,773 +746,873 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="B34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="B36">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B38">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B39">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B40">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B41">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B43">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="B44">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="B45">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B46">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B47">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B48">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="B49">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B50">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="B51">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="B52">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="B54">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B55">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="B56">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B57">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="B58">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B59">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B60">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="B61">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B62">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B63">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="B64">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B65">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="B66">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="B67">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B68">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="B69">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="B70">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="B71">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="B72">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="B73">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="B74">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B75">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="B76">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="B77">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="B78">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="B79">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="B80">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="B81">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="B82">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="B83">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="B84">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="B85">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="B86">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="B87">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="B88">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="B89">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="B90">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="B91">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="B92">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="B93">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="B94">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="B95">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="B96">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D96" s="1"/>
+      <c r="K96">
+        <f>64+32</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="B97">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="B98">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="B99">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="B101">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="B102">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="B103">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="B104">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="B105">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="B106">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="B107">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B108">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="B109">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="B110">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="B111">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="B112">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="B113">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D113" s="1"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="B114">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D114" s="1"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="B115">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D115" s="1"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="B116">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D116" s="1"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="B117">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B118">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="B119">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D119" s="1"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="B120">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D120" s="1"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="B121">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D121" s="1"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="B122">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D122" s="1"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="B123">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D123" s="1"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="B124">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D124" s="1"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="B125">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D125" s="1"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="B126">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D126" s="1"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="B127">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D127" s="1"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="B128">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D128" s="1"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="B129">
         <v>128</v>
       </c>
+      <c r="D129" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1521,16 +1620,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D431689D-74D5-437C-BEF9-98F8842123CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView zoomScale="68" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1556,7 +1655,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>28</v>
       </c>
@@ -1582,7 +1681,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>7</v>
       </c>
@@ -1608,7 +1707,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>26</v>
       </c>
@@ -1634,7 +1733,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>14</v>
       </c>
@@ -1660,7 +1759,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1686,7 +1785,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>15</v>
       </c>
@@ -1712,7 +1811,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>10</v>
       </c>
@@ -1738,7 +1837,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>25</v>
       </c>
@@ -1764,7 +1863,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>11</v>
       </c>
@@ -1790,7 +1889,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -1816,7 +1915,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>27</v>
       </c>
@@ -1842,7 +1941,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -1868,7 +1967,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>24</v>
       </c>
@@ -1894,7 +1993,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>9</v>
       </c>
@@ -1920,7 +2019,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>5</v>
       </c>
@@ -1946,7 +2045,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>31</v>
       </c>
@@ -1972,7 +2071,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>8</v>
       </c>
@@ -1998,7 +2097,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>21</v>
       </c>
@@ -2024,7 +2123,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>30</v>
       </c>
@@ -2050,7 +2149,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2076,7 +2175,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -2102,7 +2201,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -2128,7 +2227,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -2154,7 +2253,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>12</v>
       </c>
@@ -2180,7 +2279,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>17</v>
       </c>
@@ -2206,7 +2305,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>29</v>
       </c>
@@ -2232,7 +2331,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>6</v>
       </c>
@@ -2258,7 +2357,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>16</v>
       </c>
@@ -2284,7 +2383,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>13</v>
       </c>
@@ -2310,7 +2409,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>23</v>
       </c>
@@ -2336,7 +2435,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>18</v>
       </c>
@@ -2362,7 +2461,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>4</v>
       </c>
@@ -2388,100 +2487,100 @@
         <v>128</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J54" s="1"/>
     </row>
-    <row r="55" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J59" s="1"/>
     </row>
-    <row r="60" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J61" s="1"/>
     </row>
-    <row r="62" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J62" s="1"/>
     </row>
-    <row r="63" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J65" s="1"/>
     </row>
   </sheetData>
@@ -2490,16 +2589,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{365E89EA-04E8-4B40-8EB8-2C1CE22D8CCE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -2510,7 +2609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>41</v>
       </c>
@@ -2521,7 +2620,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>38</v>
       </c>
@@ -2532,7 +2631,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>43</v>
       </c>
@@ -2543,7 +2642,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>37</v>
       </c>
@@ -2554,7 +2653,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>36</v>
       </c>
@@ -2565,7 +2664,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>45</v>
       </c>
@@ -2576,7 +2675,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>47</v>
       </c>
@@ -2587,7 +2686,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>49</v>
       </c>
@@ -2598,7 +2697,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>51</v>
       </c>
@@ -2609,7 +2708,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>53</v>
       </c>
@@ -2620,7 +2719,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2631,7 +2730,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -2642,7 +2741,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -2653,7 +2752,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2664,7 +2763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>39</v>
       </c>
@@ -2675,7 +2774,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>40</v>
       </c>
@@ -2686,7 +2785,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>42</v>
       </c>
@@ -2697,7 +2796,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>44</v>
       </c>
@@ -2708,7 +2807,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>46</v>
       </c>
@@ -2719,7 +2818,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>48</v>
       </c>
@@ -2730,7 +2829,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -2741,7 +2840,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -2752,7 +2851,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -2763,7 +2862,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -2774,7 +2873,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
@@ -2785,7 +2884,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2796,7 +2895,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>23</v>
       </c>
@@ -2807,7 +2906,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>21</v>
       </c>
@@ -2818,7 +2917,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>19</v>
       </c>
@@ -2829,7 +2928,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>17</v>
       </c>
@@ -2840,7 +2939,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>24</v>
       </c>
@@ -2851,7 +2950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>27</v>
       </c>
@@ -2862,7 +2961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>22</v>
       </c>
@@ -2873,7 +2972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>28</v>
       </c>
@@ -2884,7 +2983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>29</v>
       </c>
@@ -2895,7 +2994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>20</v>
       </c>
@@ -2906,7 +3005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>18</v>
       </c>
@@ -2917,7 +3016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>16</v>
       </c>
@@ -2928,7 +3027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>14</v>
       </c>
@@ -2939,7 +3038,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>12</v>
       </c>
@@ -2950,7 +3049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>55</v>
       </c>
@@ -2961,7 +3060,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>50</v>
       </c>
@@ -2972,7 +3071,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>57</v>
       </c>
@@ -2983,7 +3082,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>52</v>
       </c>
@@ -2994,7 +3093,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>59</v>
       </c>
@@ -3005,7 +3104,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>61</v>
       </c>
@@ -3016,7 +3115,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>56</v>
       </c>
@@ -3027,7 +3126,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>63</v>
       </c>
@@ -3038,7 +3137,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>58</v>
       </c>
@@ -3049,7 +3148,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>64</v>
       </c>
@@ -3060,7 +3159,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -3071,7 +3170,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -3082,7 +3181,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -3093,7 +3192,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -3104,7 +3203,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -3115,7 +3214,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>60</v>
       </c>
@@ -3126,7 +3225,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>33</v>
       </c>
@@ -3137,7 +3236,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>62</v>
       </c>
@@ -3148,7 +3247,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>35</v>
       </c>
@@ -3159,7 +3258,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>34</v>
       </c>
@@ -3170,7 +3269,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>18</v>
       </c>
@@ -3181,7 +3280,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -3192,7 +3291,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -3203,7 +3302,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -3214,7 +3313,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>11</v>
       </c>
@@ -3225,7 +3324,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>5</v>
       </c>
@@ -3236,7 +3335,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>32</v>
       </c>
@@ -3247,7 +3346,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>3</v>
       </c>
@@ -3258,7 +3357,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>30</v>
       </c>
@@ -3269,7 +3368,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>31</v>
       </c>
@@ -3280,7 +3379,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>10</v>
       </c>
@@ -3291,7 +3390,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>15</v>
       </c>
@@ -3302,7 +3401,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>8</v>
       </c>
@@ -3313,7 +3412,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>13</v>
       </c>
@@ -3324,7 +3423,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>6</v>
       </c>
@@ -3335,7 +3434,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>4</v>
       </c>
@@ -3346,7 +3445,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>9</v>
       </c>
@@ -3357,7 +3456,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2</v>
       </c>
@@ -3368,7 +3467,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>7</v>
       </c>
@@ -3379,7 +3478,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1</v>
       </c>
@@ -3396,20 +3495,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5C9EC0-4A94-2E47-AEDB-5B0ED7BBB94D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -3417,7 +3516,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3425,7 +3524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3436,7 +3535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>0</v>
       </c>
@@ -3444,7 +3543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
@@ -3452,7 +3551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2</v>
       </c>
@@ -3460,7 +3559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>3</v>
       </c>
@@ -3468,7 +3567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>4</v>
       </c>
@@ -3476,7 +3575,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>5</v>
       </c>
@@ -3484,7 +3583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>6</v>
       </c>
@@ -3492,7 +3591,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>7</v>
       </c>
@@ -3500,7 +3599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>8</v>
       </c>
@@ -3508,7 +3607,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>9</v>
       </c>
@@ -3516,7 +3615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>10</v>
       </c>
@@ -3524,7 +3623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>11</v>
       </c>
@@ -3532,7 +3631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>12</v>
       </c>
@@ -3540,7 +3639,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>13</v>
       </c>
@@ -3548,7 +3647,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>14</v>
       </c>
@@ -3556,7 +3655,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>15</v>
       </c>
@@ -3564,7 +3663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>2</v>
       </c>
@@ -3572,7 +3671,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>1</v>
       </c>
@@ -3580,7 +3679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>16</v>
       </c>
@@ -3588,7 +3687,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>17</v>
       </c>
@@ -3596,7 +3695,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>18</v>
       </c>
@@ -3604,7 +3703,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>19</v>
       </c>
@@ -3612,7 +3711,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>20</v>
       </c>
@@ -3620,7 +3719,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>21</v>
       </c>
@@ -3628,7 +3727,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>22</v>
       </c>
@@ -3636,7 +3735,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>23</v>
       </c>
@@ -3644,7 +3743,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>24</v>
       </c>
@@ -3652,7 +3751,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>25</v>
       </c>
@@ -3660,7 +3759,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>26</v>
       </c>
@@ -3668,7 +3767,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>27</v>
       </c>
@@ -3676,7 +3775,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>28</v>
       </c>
@@ -3684,7 +3783,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>29</v>
       </c>
@@ -3692,7 +3791,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>30</v>
       </c>
@@ -3700,7 +3799,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>31</v>
       </c>
@@ -3708,7 +3807,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>2</v>
       </c>
@@ -3716,7 +3815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>1</v>
       </c>
@@ -3724,7 +3823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>0</v>
       </c>
@@ -3732,7 +3831,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>1</v>
       </c>
@@ -3740,7 +3839,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>2</v>
       </c>
@@ -3748,7 +3847,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>3</v>
       </c>
@@ -3756,7 +3855,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>4</v>
       </c>
@@ -3764,7 +3863,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>5</v>
       </c>
@@ -3772,7 +3871,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>6</v>
       </c>
@@ -3780,7 +3879,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>7</v>
       </c>
@@ -3788,7 +3887,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>8</v>
       </c>
@@ -3796,7 +3895,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>9</v>
       </c>
@@ -3804,7 +3903,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>10</v>
       </c>
@@ -3812,7 +3911,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>11</v>
       </c>
@@ -3820,7 +3919,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>12</v>
       </c>
@@ -3828,7 +3927,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>13</v>
       </c>
@@ -3836,7 +3935,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>14</v>
       </c>
@@ -3844,7 +3943,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>15</v>
       </c>
@@ -3852,7 +3951,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>2</v>
       </c>
@@ -3860,7 +3959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>1</v>
       </c>
@@ -3868,7 +3967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>16</v>
       </c>
@@ -3876,7 +3975,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>17</v>
       </c>
@@ -3884,7 +3983,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>18</v>
       </c>
@@ -3892,7 +3991,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>19</v>
       </c>
@@ -3900,7 +3999,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>20</v>
       </c>
@@ -3908,7 +4007,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>21</v>
       </c>
@@ -3916,7 +4015,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>22</v>
       </c>
@@ -3924,7 +4023,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>23</v>
       </c>
@@ -3932,7 +4031,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>24</v>
       </c>
@@ -3940,7 +4039,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>25</v>
       </c>
@@ -3948,7 +4047,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>26</v>
       </c>
@@ -3956,7 +4055,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>27</v>
       </c>
@@ -3964,7 +4063,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>28</v>
       </c>
@@ -3972,7 +4071,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>29</v>
       </c>
@@ -3980,7 +4079,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>30</v>
       </c>
@@ -3988,7 +4087,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>31</v>
       </c>
@@ -3996,7 +4095,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>2</v>
       </c>
@@ -4010,23 +4109,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0C3732-B34D-E94E-A527-A7364C72D397}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K130"/>
   <sheetViews>
-    <sheetView zoomScale="88" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A7" zoomScale="88" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -4042,7 +4141,7 @@
       </c>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -4074,7 +4173,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4106,7 +4205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4138,7 +4237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4170,7 +4269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4202,7 +4301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -4234,7 +4333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -4266,7 +4365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -4298,7 +4397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -4330,7 +4429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -4362,7 +4461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -4394,7 +4493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -4426,7 +4525,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -4458,7 +4557,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -4490,7 +4589,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -4522,7 +4621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -4554,7 +4653,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -4586,7 +4685,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -4618,7 +4717,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -4650,7 +4749,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -4682,7 +4781,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -4714,7 +4813,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -4746,7 +4845,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -4778,7 +4877,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -4810,7 +4909,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -4842,7 +4941,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -4874,7 +4973,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -4906,7 +5005,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -4938,7 +5037,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -4970,7 +5069,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -5002,7 +5101,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -5034,7 +5133,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -5066,7 +5165,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -5098,7 +5197,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -5130,7 +5229,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -5162,7 +5261,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -5194,7 +5293,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -5226,7 +5325,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -5258,7 +5357,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -5290,7 +5389,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -5322,7 +5421,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -5354,7 +5453,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -5386,7 +5485,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -5418,7 +5517,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -5450,7 +5549,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -5482,7 +5581,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -5514,7 +5613,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -5546,7 +5645,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -5578,7 +5677,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -5610,7 +5709,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -5642,7 +5741,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
@@ -5674,7 +5773,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -5706,7 +5805,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -5738,7 +5837,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -5770,7 +5869,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -5802,7 +5901,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
@@ -5834,7 +5933,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -5866,7 +5965,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -5898,7 +5997,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -5930,7 +6029,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
@@ -5962,7 +6061,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -5994,7 +6093,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -6026,7 +6125,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -6058,7 +6157,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
@@ -6090,7 +6189,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
@@ -6122,7 +6221,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2</v>
       </c>
@@ -6154,7 +6253,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2</v>
       </c>
@@ -6186,7 +6285,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2</v>
       </c>
@@ -6218,7 +6317,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2</v>
       </c>
@@ -6250,7 +6349,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2</v>
       </c>
@@ -6282,7 +6381,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2</v>
       </c>
@@ -6314,7 +6413,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2</v>
       </c>
@@ -6346,7 +6445,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2</v>
       </c>
@@ -6378,7 +6477,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2</v>
       </c>
@@ -6410,7 +6509,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2</v>
       </c>
@@ -6442,7 +6541,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2</v>
       </c>
@@ -6474,7 +6573,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2</v>
       </c>
@@ -6506,7 +6605,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2</v>
       </c>
@@ -6538,7 +6637,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2</v>
       </c>
@@ -6570,7 +6669,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2</v>
       </c>
@@ -6602,7 +6701,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2</v>
       </c>
@@ -6634,7 +6733,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2</v>
       </c>
@@ -6666,7 +6765,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2</v>
       </c>
@@ -6698,7 +6797,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2</v>
       </c>
@@ -6730,7 +6829,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2</v>
       </c>
@@ -6762,7 +6861,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2</v>
       </c>
@@ -6794,7 +6893,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2</v>
       </c>
@@ -6826,7 +6925,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2</v>
       </c>
@@ -6858,7 +6957,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2</v>
       </c>
@@ -6890,7 +6989,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2</v>
       </c>
@@ -6922,7 +7021,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2</v>
       </c>
@@ -6954,7 +7053,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2</v>
       </c>
@@ -6986,7 +7085,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2</v>
       </c>
@@ -7018,7 +7117,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2</v>
       </c>
@@ -7050,7 +7149,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2</v>
       </c>
@@ -7082,7 +7181,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2</v>
       </c>
@@ -7114,7 +7213,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2</v>
       </c>
@@ -7146,7 +7245,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2</v>
       </c>
@@ -7178,7 +7277,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2</v>
       </c>
@@ -7210,7 +7309,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2</v>
       </c>
@@ -7242,7 +7341,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2</v>
       </c>
@@ -7274,7 +7373,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2</v>
       </c>
@@ -7306,7 +7405,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2</v>
       </c>
@@ -7338,7 +7437,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2</v>
       </c>
@@ -7370,7 +7469,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2</v>
       </c>
@@ -7402,7 +7501,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2</v>
       </c>
@@ -7434,7 +7533,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2</v>
       </c>
@@ -7466,7 +7565,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2</v>
       </c>
@@ -7498,7 +7597,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2</v>
       </c>
@@ -7530,7 +7629,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2</v>
       </c>
@@ -7562,7 +7661,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2</v>
       </c>
@@ -7594,7 +7693,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2</v>
       </c>
@@ -7626,7 +7725,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2</v>
       </c>
@@ -7658,7 +7757,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2</v>
       </c>
@@ -7690,7 +7789,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2</v>
       </c>
@@ -7722,7 +7821,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2</v>
       </c>
@@ -7754,7 +7853,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2</v>
       </c>
@@ -7786,7 +7885,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2</v>
       </c>
@@ -7818,7 +7917,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2</v>
       </c>
@@ -7850,7 +7949,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2</v>
       </c>
@@ -7882,7 +7981,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2</v>
       </c>
@@ -7914,7 +8013,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2</v>
       </c>
@@ -7946,7 +8045,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2</v>
       </c>
@@ -7978,7 +8077,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2</v>
       </c>
@@ -8010,7 +8109,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2</v>
       </c>
@@ -8042,7 +8141,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2</v>
       </c>
@@ -8074,7 +8173,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2</v>
       </c>
@@ -8106,7 +8205,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2</v>
       </c>
@@ -8138,7 +8237,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2</v>
       </c>
